--- a/similarities/split_global/harmonic_similarity_timestamps_265.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_265.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:10.040000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
+          <t>('0:00:07.900000', '0:00:21.560000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:08.440000', '0:00:17.540000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'E/4', 'A', 'D/5']]</t>
+          <t>['F/3', 'Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
+          <t>['D', 'G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:04.875000', '0:00:10.553000')]</t>
+          <t>('0:01:03.461000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.366281', '0:00:12.591587')]</t>
+          <t>('0:00:43.934000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=4.875']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=0.366281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Bb:7', 'Eb/5', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:06.100000', '0:00:12.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:04:15.633000', '0:04:18.257000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=6.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.660000', '0:00:10.950000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
+          <t>['E:7', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000'), ('0:02:18.280000', '0:02:34.200000')]</t>
+          <t>('0:00:00.446618', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+          <t>('0:00:15', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=138.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=0.446618</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=0.522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=15.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G/5', 'D']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.620000', '0:01:02.280000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.434000', '0:00:23.353000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=54.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['C:min', 'D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000')]</t>
+          <t>('0:00:59.437845', '0:01:06.566371')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:21.580000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=59.437845</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=21.58</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18.200000', '0:00:23.520000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=18.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D', 'G', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['E/3', 'A', 'E/5', 'B', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:00:04.063000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:00:28.395907', '0:00:41.761111')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=28.395907</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
